--- a/coho_apportionment/example/Situk Missfill Example.xlsx
+++ b/coho_apportionment/example/Situk Missfill Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chilkat_sockeye\coho_apportionment\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BDFF804-CE4F-4D49-8D1E-7844E762A9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBE50BE-889B-4312-8793-12E66940320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="649" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t xml:space="preserve"> imputes all NAs in all years iteratively</t>
   </si>
   <si>
-    <t xml:space="preserve">locall missfill from R code </t>
-  </si>
-  <si>
     <t xml:space="preserve">global missfill from R code </t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local missfill from R code </t>
   </si>
 </sst>
 </file>
@@ -26618,10 +26618,10 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -39548,7 +39548,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39565,16 +39565,16 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="20">
         <f>(SUM(B16:L16)*SUM(G7:G120))/SUM(B7:L120)</f>
@@ -52182,7 +52182,7 @@
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124" s="3">
         <f>B123-B122</f>
